--- a/Sufficient data/forecast_summary_B0C4BH2Z7D.xlsx
+++ b/Sufficient data/forecast_summary_B0C4BH2Z7D.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>20</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
         <v>23</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>21</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
     </row>
